--- a/PDF_SCRAPING/PDF_Scraping/Datos.xlsx
+++ b/PDF_SCRAPING/PDF_Scraping/Datos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>COMPAÑIA</x:t>
   </x:si>
@@ -234,6 +234,206 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">1 100,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Riffwire
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">189
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6014
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2017/12/25
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 550,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rhyzio
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">386
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7054
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2016/12/22
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">950,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Zoozzy
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">638
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5366
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2016/08/06
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 350,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Plambee
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">696
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4031
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2017/05/28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 175,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tazz
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">469
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9541
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2016/01/06
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 150,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Yamia
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">741
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3326
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2018/01/29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 675,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Babbleblab
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">296
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8649
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2018/01/17
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 325,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Youbridge
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">702
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7771
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2016/09/26
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 175,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Fivechat
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">280
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9270
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2016/05/22
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 250,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Quinu
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">704
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8463
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2016/09/03
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 375,00 
 </x:t>
   </x:si>
 </x:sst>
@@ -277,9 +477,1509 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="97">
+  <x:cellStyleXfs count="597">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -864,7 +2564,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="79.949219" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="255" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
@@ -1051,6 +2751,176 @@
       </x:c>
       <x:c r="E11" s="2" t="s">
         <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E14" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E16" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E18" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E20" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E21" s="2" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
